--- a/input/carshare_data_v4.xlsx
+++ b/input/carshare_data_v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kampw\PycharmProjects\carShareCalc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kampw\PycharmProjects\carshare-react\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9814C1F0-E6C0-4B31-9155-9756200520AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11EB092-85DA-48B1-B247-78C2D3C530D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED27C62F-BF0F-45ED-B1F2-67EFCF8C1D7C}"/>
   </bookViews>
@@ -721,8 +721,8 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/input/carshare_data_v4.xlsx
+++ b/input/carshare_data_v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kampw\PycharmProjects\carshare-react\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11EB092-85DA-48B1-B247-78C2D3C530D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6280E33C-2EF9-4AA0-9E80-256B5635BF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED27C62F-BF0F-45ED-B1F2-67EFCF8C1D7C}"/>
   </bookViews>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>SHARE NOW</t>
-  </si>
-  <si>
-    <t>Minute rate</t>
   </si>
   <si>
     <t>xs</t>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Hourly rate</t>
+  </si>
+  <si>
+    <t>Per minute</t>
   </si>
 </sst>
 </file>
@@ -721,8 +721,8 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A1:A79"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -777,30 +777,30 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -838,16 +838,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <f>3*60</f>
@@ -886,16 +886,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <f>3*60</f>
@@ -934,16 +934,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <f>3*60</f>
@@ -982,16 +982,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f>6*60</f>
@@ -1030,16 +1030,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f>6*60</f>
@@ -1078,16 +1078,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <f>6*60</f>
@@ -1126,16 +1126,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <f>24*60</f>
@@ -1174,16 +1174,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <f>24*60</f>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f>24*60</f>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <f>72*60</f>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <f>72*60</f>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <f>72*60</f>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <f>7*24*60</f>
@@ -1462,16 +1462,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <f>7*24*60</f>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <f>7*24*60</f>
@@ -1558,16 +1558,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1702,16 +1702,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1846,16 +1846,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1894,16 +1894,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1942,16 +1942,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1990,16 +1990,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="4">
         <f>24*60</f>
@@ -2135,16 +2135,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4">
         <f>24*60</f>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="4">
         <f>(8+48+10)*60</f>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4">
         <f>(8+48+10)*60</f>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4">
         <f>7*24*60</f>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4">
         <f>7*24*60</f>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -2428,16 +2428,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4">
         <f>24*60</f>
@@ -2525,16 +2525,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="4">
         <f>24*60</f>
@@ -2574,16 +2574,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="4">
         <f>(8+48+10)*60</f>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4">
         <f>(8+48+10)*60</f>
@@ -2672,16 +2672,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4">
         <f>7*24*60</f>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="4">
         <f>7*24*60</f>
@@ -2770,16 +2770,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4">
         <f>24*60</f>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="4">
         <f>24*60</f>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="4">
         <f>(8+48+10)*60</f>
@@ -3013,16 +3013,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="4">
         <f>(8+48+10)*60</f>
@@ -3062,16 +3062,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="4">
         <f>7*24*60</f>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="4">
         <f>7*24*60</f>
@@ -3163,13 +3163,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
         <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3257,13 +3257,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>120</v>
@@ -3351,13 +3351,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55">
         <v>120</v>
@@ -3398,13 +3398,13 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -3445,13 +3445,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>240</v>
@@ -3492,13 +3492,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>240</v>
@@ -3539,13 +3539,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>240</v>
@@ -3586,13 +3586,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>360</v>
@@ -3633,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61">
         <v>360</v>
@@ -3680,13 +3680,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>360</v>
@@ -3727,13 +3727,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <f>24*60</f>
@@ -3775,13 +3775,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64">
         <f>24*60</f>
@@ -3823,13 +3823,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <f>24*60</f>
@@ -3871,13 +3871,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <f>48*60</f>
@@ -3919,13 +3919,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67">
         <f>48*60</f>
@@ -3967,13 +3967,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <f>48*60</f>
@@ -4015,13 +4015,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <f>72*60</f>
@@ -4063,13 +4063,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70">
         <f>72*60</f>
@@ -4111,13 +4111,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <f>72*60</f>
@@ -4159,13 +4159,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
         <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4206,13 +4206,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4253,13 +4253,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4300,13 +4300,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
         <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4394,13 +4394,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4438,16 +4438,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
         <v>43</v>
       </c>
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78">
         <v>60</v>
@@ -4485,16 +4485,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
         <v>43</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>44</v>
       </c>
-      <c r="C79" t="s">
-        <v>45</v>
-      </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <v>1440</v>
@@ -4545,15 +4545,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>500</v>
